--- a/api/output/infoExcel.xlsx
+++ b/api/output/infoExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,9 +470,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>P10097001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Argon /Mix20</v>
+      </c>
+      <c r="C4" t="str">
+        <v>10m3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2023-09-27</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2023-09-29</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/api/output/infoExcel.xlsx
+++ b/api/output/infoExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,7 @@
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -421,13 +422,16 @@
         <v>Capacidad</v>
       </c>
       <c r="D1" t="str">
-        <v>Fecha entrega</v>
+        <v>Fecha Entrega</v>
       </c>
       <c r="E1" t="str">
         <v>Fecha Recepción</v>
       </c>
       <c r="F1" t="str">
         <v>Días</v>
+      </c>
+      <c r="G1" t="str">
+        <v>¿De Ñubles?</v>
       </c>
     </row>
     <row r="2">
@@ -449,6 +453,9 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" t="str">
+        <v>Si</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -469,6 +476,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" t="str">
+        <v>Si</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -489,10 +499,13 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" t="str">
+        <v>Si</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/api/output/infoExcel.xlsx
+++ b/api/output/infoExcel.xlsx
@@ -439,7 +439,7 @@
         <v>P10097001</v>
       </c>
       <c r="B2" t="str">
-        <v>Argon /Mix20</v>
+        <v>Argón /Mix20</v>
       </c>
       <c r="C2" t="str">
         <v>10m3</v>
@@ -462,7 +462,7 @@
         <v>P10097002</v>
       </c>
       <c r="B3" t="str">
-        <v>Argon /Mix20</v>
+        <v>Argón /Mix20</v>
       </c>
       <c r="C3" t="str">
         <v>10m3</v>
@@ -485,7 +485,7 @@
         <v>P10097001</v>
       </c>
       <c r="B4" t="str">
-        <v>Argon /Mix20</v>
+        <v>Argón /Mix20</v>
       </c>
       <c r="C4" t="str">
         <v>10m3</v>

--- a/api/output/infoExcel.xlsx
+++ b/api/output/infoExcel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,81 +431,35 @@
         <v>Días</v>
       </c>
       <c r="G1" t="str">
-        <v>¿De Ñubles?</v>
+        <v>¿De Ñuble?</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>P10097001</v>
+        <v>test</v>
       </c>
       <c r="B2" t="str">
-        <v>Argón /Mix20</v>
+        <v>Nitrógeno Gaseoso</v>
       </c>
       <c r="C2" t="str">
         <v>10m3</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-09-12</v>
+        <v>2023-11-15</v>
       </c>
       <c r="E2" t="str">
-        <v>2023-09-15</v>
+        <v>2023-11-15</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>P10097002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Argón /Mix20</v>
-      </c>
-      <c r="C3" t="str">
-        <v>10m3</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2023-09-12</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2023-09-13</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>P10097001</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Argón /Mix20</v>
-      </c>
-      <c r="C4" t="str">
-        <v>10m3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2023-09-27</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2023-09-29</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="str">
         <v>Si</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>